--- a/PAR Gantt Chart.xlsx
+++ b/PAR Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BE7FC1-235C-46B4-ACC1-3B599DFDB9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED41F95-1B18-40D3-A976-96CF1980E6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -1392,25 +1392,25 @@
   </sheetPr>
   <dimension ref="B1:DD32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="27.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.75" style="1" customWidth="1"/>
-    <col min="9" max="27" width="2.75" style="1"/>
-    <col min="107" max="108" width="3.25" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.77734375" style="1" customWidth="1"/>
+    <col min="9" max="27" width="2.77734375" style="1"/>
+    <col min="107" max="108" width="3.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:108" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:108" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
       <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="2:108" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:108" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="67" t="s">
@@ -1478,7 +1478,7 @@
       <c r="AO2" s="61"/>
       <c r="AP2" s="61"/>
     </row>
-    <row r="3" spans="2:108" s="7" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:108" s="7" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:108" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:108" s="7" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="62"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -1926,7 +1926,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="5" spans="2:108" s="7" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:108" s="7" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="62"/>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
@@ -2237,7 +2237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="63"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -2648,7 +2648,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="35" t="s">
         <v>24</v>
       </c>
@@ -2731,7 +2731,7 @@
       <c r="DC7" s="28"/>
       <c r="DD7" s="32"/>
     </row>
-    <row r="8" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
         <v>38</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="DC8" s="30"/>
       <c r="DD8" s="33"/>
     </row>
-    <row r="9" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="35" t="s">
         <v>28</v>
       </c>
@@ -2895,7 +2895,7 @@
       <c r="DC9" s="30"/>
       <c r="DD9" s="33"/>
     </row>
-    <row r="10" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="35" t="s">
         <v>29</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="DC10" s="30"/>
       <c r="DD10" s="33"/>
     </row>
-    <row r="11" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="35" t="s">
         <v>30</v>
       </c>
@@ -3055,7 +3055,7 @@
       <c r="DC11" s="30"/>
       <c r="DD11" s="33"/>
     </row>
-    <row r="12" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="35" t="s">
         <v>32</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="DC12" s="30"/>
       <c r="DD12" s="33"/>
     </row>
-    <row r="13" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="35" t="s">
         <v>31</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="DC13" s="30"/>
       <c r="DD13" s="33"/>
     </row>
-    <row r="14" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="35" t="s">
         <v>33</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="DC14" s="30"/>
       <c r="DD14" s="33"/>
     </row>
-    <row r="15" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="35" t="s">
         <v>34</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="DC15" s="30"/>
       <c r="DD15" s="33"/>
     </row>
-    <row r="16" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="35" t="s">
         <v>35</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="DC16" s="30"/>
       <c r="DD16" s="33"/>
     </row>
-    <row r="17" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
         <v>36</v>
       </c>
@@ -3529,7 +3529,7 @@
       <c r="DC17" s="30"/>
       <c r="DD17" s="33"/>
     </row>
-    <row r="18" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="35" t="s">
         <v>37</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="DC18" s="30"/>
       <c r="DD18" s="33"/>
     </row>
-    <row r="19" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="35" t="s">
         <v>39</v>
       </c>
@@ -3687,7 +3687,7 @@
       <c r="DC19" s="30"/>
       <c r="DD19" s="33"/>
     </row>
-    <row r="20" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="35" t="s">
         <v>40</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="DC20" s="30"/>
       <c r="DD20" s="33"/>
     </row>
-    <row r="21" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="35" t="s">
         <v>41</v>
       </c>
@@ -3847,7 +3847,7 @@
       <c r="DC21" s="30"/>
       <c r="DD21" s="33"/>
     </row>
-    <row r="22" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="35" t="s">
         <v>42</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="DC22" s="30"/>
       <c r="DD22" s="33"/>
     </row>
-    <row r="23" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="35" t="s">
         <v>1</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="DC23" s="30"/>
       <c r="DD23" s="33"/>
     </row>
-    <row r="24" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="35" t="s">
         <v>2</v>
       </c>
@@ -4076,7 +4076,7 @@
       <c r="DC24" s="30"/>
       <c r="DD24" s="33"/>
     </row>
-    <row r="25" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="35" t="s">
         <v>3</v>
       </c>
@@ -4151,7 +4151,7 @@
       <c r="DC25" s="30"/>
       <c r="DD25" s="33"/>
     </row>
-    <row r="26" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="35" t="s">
         <v>4</v>
       </c>
@@ -4226,7 +4226,7 @@
       <c r="DC26" s="30"/>
       <c r="DD26" s="33"/>
     </row>
-    <row r="27" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="35" t="s">
         <v>5</v>
       </c>
@@ -4301,7 +4301,7 @@
       <c r="DC27" s="30"/>
       <c r="DD27" s="33"/>
     </row>
-    <row r="28" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="35" t="s">
         <v>6</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="DC28" s="30"/>
       <c r="DD28" s="33"/>
     </row>
-    <row r="29" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="35" t="s">
         <v>7</v>
       </c>
@@ -4451,7 +4451,7 @@
       <c r="DC29" s="30"/>
       <c r="DD29" s="33"/>
     </row>
-    <row r="30" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="35" t="s">
         <v>8</v>
       </c>
@@ -4526,7 +4526,7 @@
       <c r="DC30" s="30"/>
       <c r="DD30" s="33"/>
     </row>
-    <row r="31" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="35" t="s">
         <v>9</v>
       </c>
@@ -4601,7 +4601,7 @@
       <c r="DC31" s="30"/>
       <c r="DD31" s="33"/>
     </row>
-    <row r="32" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:108" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="35" t="s">
         <v>10</v>
       </c>
